--- a/biology/Virologie/Coronavirus_de_chauve-souris_WIV16_lié_au_SRAS/Coronavirus_de_chauve-souris_WIV16_lié_au_SRAS.xlsx
+++ b/biology/Virologie/Coronavirus_de_chauve-souris_WIV16_lié_au_SRAS/Coronavirus_de_chauve-souris_WIV16_lié_au_SRAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coronavirus_de_chauve-souris_WIV16_li%C3%A9_au_SRAS</t>
+          <t>Coronavirus_de_chauve-souris_WIV16_lié_au_SRAS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus WIV16 est une souche de coronavirus associé au SRAS (espèce SARSr-CoV).
 Son génome, publié en 2016, a une similitude de 96 % avec la séquence entière du génome du SRAS-CoV-1 responsable l'épidémie de SRAS.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coronavirus_de_chauve-souris_WIV16_li%C3%A9_au_SRAS</t>
+          <t>Coronavirus_de_chauve-souris_WIV16_lié_au_SRAS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus WIV16 a été découvert et isolé avec succès en 2013 dans les échantillons fécaux de la chauve-souris  Rhinolophus sinicus à Kunming dans le Yunnan.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coronavirus_de_chauve-souris_WIV16_li%C3%A9_au_SRAS</t>
+          <t>Coronavirus_de_chauve-souris_WIV16_lié_au_SRAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Virologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur du génome est de 30290 bases et sa similarité de séquence avec le SRAS-CoV-1 est de 96 % (contre 95,6 % pour le virus WIV1 et 95,4 % pour le virus SHC014), ce qui en fait le virus connu le plus proche du SRAS-CoV-1. En particulier, sa protéine spiculaire présente une similitude de séquence d'acides aminés de 97 % avec le SRAS-CoV-1, ce qui est supérieur aux autres SRASr-CoV de chauve-souris connus. Comme le WIV1, la similitude au niveau du domaine de liaison au récepteur (RBD) est de 95 %.
-En revanche, sa similarité est plus faible, au niveau de la séquence ORF8 (environ 40 %)[1]. Le virus WIV16 et le virus WIV ont tous deux un autre cadre de lecture ouvert entre ORF6 et ORF7. ORFX code une protéine auxiliaire, qui est unique à ces deux souches virales et peut inhiber l'interféron β dans les cellules hôtes et stimuler l'expression de NF-κB (réponse immunitaire)[2].
-Parmi les virus de chauve-souris liés au SRAS, seuls les virus WIV16 et WIV1 ont été isolés avec succès à partir d'échantillons et cultivés dans des cellules in vitro[3],[2].
+En revanche, sa similarité est plus faible, au niveau de la séquence ORF8 (environ 40 %). Le virus WIV16 et le virus WIV ont tous deux un autre cadre de lecture ouvert entre ORF6 et ORF7. ORFX code une protéine auxiliaire, qui est unique à ces deux souches virales et peut inhiber l'interféron β dans les cellules hôtes et stimuler l'expression de NF-κB (réponse immunitaire).
+Parmi les virus de chauve-souris liés au SRAS, seuls les virus WIV16 et WIV1 ont été isolés avec succès à partir d'échantillons et cultivés dans des cellules in vitro,.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coronavirus_de_chauve-souris_WIV16_li%C3%A9_au_SRAS</t>
+          <t>Coronavirus_de_chauve-souris_WIV16_lié_au_SRAS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Animal hôte :
